--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692707.0685932707</v>
+        <v>686270.5440176837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10591888.42559689</v>
+        <v>10591298.44620647</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>173.818574820451</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>2.914106014784388</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>108.4193899367865</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968106</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.4925410223833</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>218.3334250100146</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>163.1105694239061</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>234.7722245630569</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968106</v>
+        <v>50.6435372072253</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.45080330270152</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>57.6896444990959</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>366.9913544173936</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>199.9100915889322</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>39.0397560381587</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.09224796262757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>75.72452079258241</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>222.6053552973554</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.72233826939509</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.18069504976894</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.91623022026302</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>54.92939324850822</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>87.16751742380593</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.97210870300621</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,16 +1819,16 @@
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697368</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383889</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828902</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431734</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459975</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643948</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931859</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908586</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147799</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805003</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922196</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367788</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792052</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1266.728354873844</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="C2" t="n">
-        <v>873.552853376774</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.71031657295</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678799</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678799</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V2" t="n">
-        <v>1666.162605382317</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="W2" t="n">
-        <v>1663.219063953242</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="X2" t="n">
-        <v>1663.219063953242</v>
+        <v>1509.554926079858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.728354873844</v>
+        <v>1509.554926079858</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.44958816289</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>165.9350528732066</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591877</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196196</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196196</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196196</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196196</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196196</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196196</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196196</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179937</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549411</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591119</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367697</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737748</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737748</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737748</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737748</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737748</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="V4" t="n">
-        <v>1908.803624558573</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="W4" t="n">
-        <v>1908.803624558573</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="X4" t="n">
-        <v>1674.723302341556</v>
+        <v>395.6943829715884</v>
       </c>
       <c r="Y4" t="n">
-        <v>1451.611241158199</v>
+        <v>395.6943829715884</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389.5550957294753</v>
+        <v>1418.914862540124</v>
       </c>
       <c r="C5" t="n">
-        <v>389.5550957294753</v>
+        <v>1025.739361043055</v>
       </c>
       <c r="D5" t="n">
-        <v>389.5550957294753</v>
+        <v>1025.739361043055</v>
       </c>
       <c r="E5" t="n">
-        <v>389.5550957294753</v>
+        <v>623.1558361595992</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>206.2613976895769</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793362</v>
+        <v>280.012274464855</v>
       </c>
       <c r="L5" t="n">
-        <v>668.673300197865</v>
+        <v>773.3325661833838</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207958</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.74336884542</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737748</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.646394848465</v>
+        <v>1819.409608251521</v>
       </c>
       <c r="V5" t="n">
-        <v>1557.539585551983</v>
+        <v>1819.409608251521</v>
       </c>
       <c r="W5" t="n">
-        <v>1186.540550520271</v>
+        <v>1819.409608251521</v>
       </c>
       <c r="X5" t="n">
-        <v>1186.540550520271</v>
+        <v>1819.409608251521</v>
       </c>
       <c r="Y5" t="n">
-        <v>790.0498414408721</v>
+        <v>1819.409608251521</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875479</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.8509614285281</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="C7" t="n">
-        <v>710.6458434945173</v>
+        <v>197.062058897136</v>
       </c>
       <c r="D7" t="n">
-        <v>555.012730397032</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E7" t="n">
-        <v>399.4539182562345</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692075</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>425.5395450120517</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>367.2671768311467</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824.0408438235784</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="C8" t="n">
-        <v>430.8653423265089</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="D8" t="n">
-        <v>430.8653423265089</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>430.8653423265089</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>418.0113078968907</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
         <v>358.4764287842802</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1595.534624566688</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1224.535589534975</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.535589534975</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1224.535589534975</v>
+        <v>2125.726205919336</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
         <v>1960.027136360783</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>909.325895634855</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>623.887103876756</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>623.887103876756</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>623.887103876756</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>623.887103876756</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>400.7750426933993</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816803</v>
+        <v>1361.068988064615</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816803</v>
+        <v>1039.689761713739</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>726.0449080766004</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766004</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>380.946744752772</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>380.946744752772</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2934.749690351018</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2664.439156200729</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.236396315211</v>
+        <v>2332.118222483772</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.236396315211</v>
+        <v>2014.461892563023</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382006</v>
+        <v>1689.767458629818</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.0869922083497</v>
+        <v>428.5169307200796</v>
       </c>
       <c r="C13" t="n">
-        <v>389.0869922083497</v>
+        <v>428.5169307200796</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083497</v>
+        <v>344.6800927687882</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>327.7888419916214</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,13 +5200,13 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
         <v>999.6269248138161</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.167348517031</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840487</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614203</v>
+        <v>855.5285073731728</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905973</v>
+        <v>693.2444603023497</v>
       </c>
       <c r="Y13" t="n">
-        <v>502.498735753457</v>
+        <v>541.9286742651871</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2029.223523093471</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.844296742596</v>
+        <v>1393.015874768146</v>
       </c>
       <c r="D14" t="n">
-        <v>1394.199443105457</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>1063.412193368196</v>
+        <v>748.5837713937467</v>
       </c>
       <c r="F14" t="n">
-        <v>718.3140300443677</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>376.9475496785647</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>124.6607743912499</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2955.754869688467</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.578323579424</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="W14" t="n">
-        <v>2675.578323579424</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.921993658675</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.921993658675</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O15" t="n">
         <v>1974.833293963354</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>479.2406156985688</v>
+        <v>480.3646367048061</v>
       </c>
       <c r="C16" t="n">
-        <v>380.8317729107521</v>
+        <v>480.3646367048061</v>
       </c>
       <c r="D16" t="n">
-        <v>296.9949349594608</v>
+        <v>396.5277987535149</v>
       </c>
       <c r="E16" t="n">
-        <v>296.9949349594608</v>
+        <v>312.7652617589114</v>
       </c>
       <c r="F16" t="n">
-        <v>211.4652753186276</v>
+        <v>227.2356021180782</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>130.7778233637178</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.685342236449</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034674</v>
+        <v>793.9644698127919</v>
       </c>
       <c r="W16" t="n">
-        <v>743.9681452808389</v>
+        <v>793.9644698127919</v>
       </c>
       <c r="X16" t="n">
-        <v>743.9681452808389</v>
+        <v>631.6804227419689</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.6523592436762</v>
+        <v>480.3646367048061</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.407894603582</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,10 +5777,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031230033</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222422</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
         <v>664.1257379390265</v>
@@ -6218,34 +6218,34 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958346</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
@@ -6257,19 +6257,19 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6309,13 @@
         <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1676.653625847017</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878063</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304693</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918666</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.058261612313</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431916</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>245.409263406752</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>514.809996007622</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729563</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831236</v>
+        <v>759.0249449603698</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600014</v>
+        <v>1033.381832577061</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395518</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,22 +7199,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7348,10 +7348,10 @@
         <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1059.426580900608</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,10 +7403,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7427,34 +7427,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>273.010538436486</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>312.6161996011372</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>481.1677586177635</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>579.6457977417014</v>
       </c>
       <c r="N3" t="n">
-        <v>124.6023342950651</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>276.2476446788144</v>
+        <v>383.9766129858198</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>588.5633660719492</v>
+        <v>465.388239943997</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>308.5636983559938</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>353.4472259067894</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>405.2384673331027</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,22 +9477,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>543.8532815002535</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9957,16 +9957,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210919</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263914</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11139,25 +11139,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>106.392369082433</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>73.60537698930808</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>66.20257335526247</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.6219331270222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>3.959203123464834</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>127.1874966265072</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.325683543011024</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>14.87334443038299</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>930563.8098410475</v>
+        <v>930263.0360341673</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930563.8098410475</v>
+        <v>930263.0360341673</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825635.3124565994</v>
+        <v>825635.3124565992</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825635.3124565994</v>
+        <v>825635.3124565996</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>932598.4012682762</v>
+        <v>932598.401268276</v>
       </c>
     </row>
     <row r="9">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342631.1383773778</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="C2" t="n">
         <v>342631.1383773779</v>
       </c>
       <c r="D2" t="n">
-        <v>342631.1383773778</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="E2" t="n">
-        <v>302782.1445063609</v>
+        <v>302782.1445063608</v>
       </c>
       <c r="F2" t="n">
         <v>302782.1445063609</v>
@@ -26329,7 +26329,7 @@
         <v>342631.1383773781</v>
       </c>
       <c r="H2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773779</v>
       </c>
       <c r="I2" t="n">
         <v>342631.1383773781</v>
@@ -26353,7 +26353,7 @@
         <v>342631.1383773781</v>
       </c>
       <c r="P2" t="n">
-        <v>342631.1383773782</v>
+        <v>342631.1383773781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
-        <v>165792.0503172816</v>
+        <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.7885158943</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26457,7 +26457,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391949</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84333.91584373036</v>
+        <v>-80884.79145007602</v>
       </c>
       <c r="C6" t="n">
-        <v>97871.0324481256</v>
+        <v>92973.86558397916</v>
       </c>
       <c r="D6" t="n">
-        <v>92431.49047230117</v>
+        <v>84695.20124890975</v>
       </c>
       <c r="E6" t="n">
-        <v>50484.77481658151</v>
+        <v>50275.0432698919</v>
       </c>
       <c r="F6" t="n">
-        <v>162607.3362906261</v>
+        <v>162397.6047439366</v>
       </c>
       <c r="G6" t="n">
-        <v>102288.3385177</v>
+        <v>102288.3385177002</v>
       </c>
       <c r="H6" t="n">
-        <v>149713.664054382</v>
+        <v>149713.6640543819</v>
       </c>
       <c r="I6" t="n">
         <v>149713.664054382</v>
       </c>
       <c r="J6" t="n">
-        <v>-63328.25354290334</v>
+        <v>-56811.96838833034</v>
       </c>
       <c r="K6" t="n">
         <v>143473.895651599</v>
       </c>
       <c r="L6" t="n">
-        <v>88291.30671697794</v>
+        <v>84242.46950650588</v>
       </c>
       <c r="M6" t="n">
-        <v>107512.834594759</v>
+        <v>106461.1395835708</v>
       </c>
       <c r="N6" t="n">
         <v>149713.664054382</v>
       </c>
       <c r="O6" t="n">
-        <v>121945.9700116108</v>
+        <v>121945.9700116107</v>
       </c>
       <c r="P6" t="n">
         <v>149713.664054382</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26814,10 +26814,10 @@
         <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.489096301444</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>215.4251716616477</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>364.374938666611</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.66263604343463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626999</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.863397482004927</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,13 +27543,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>15.02843630343358</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>245.9205585329707</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>18.42297770669049</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626999</v>
+        <v>124.5704364758553</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.9051352016867</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>163.1912960724272</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>42.03977353948324</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>192.6157103996727</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.3221052752895</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>197.4048500855066</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,46 +28749,46 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529923</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,43 +28956,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29223,13 +29223,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634530087</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901124</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599442</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,13 +29536,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683159988</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738833188</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045305</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031297</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,14 +30165,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>28.01250026485243</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30642,7 +30642,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634527857</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R46" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>162.8911480034099</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>331.6039211936671</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>487.2586756923894</v>
       </c>
       <c r="N3" t="n">
-        <v>39.23022144089846</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>133.189241499577</v>
+        <v>240.9182098065824</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1762440226373</v>
+        <v>373.001117894685</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>216.1765763066819</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>260.7596670179005</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5509084442139</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,22 +36045,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644682406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634530099</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36519,13 +36519,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094889</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907909</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>273.3632145670535</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220298</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670549</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,19 +37075,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>395.1996343381876</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.372614399391</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375025</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.638096127263</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>261.8338889252718</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>192.3607498019313</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.09276664468034</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
